--- a/similarities/split_global/harmonic_similarity_timestamps_182.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_182.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:00:08.440000', '0:00:17.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:14.560000')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000'), ('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000'), ('0:01:48.500000', '0:02:05.020000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=108.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:13.620000', '0:01:21.040000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min', 'G#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:45.670000', '0:00:51.020000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:48.240000', '0:00:57.660000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=48.24']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.180000', '0:00:12.040000')]</t>
+          <t>('0:03:31.700000', '0:03:34.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.916720', '0:01:03.328512')]</t>
+          <t>('0:00:42.394399', '0:00:50.173083')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=10.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=211.7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=58.91672']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:20.600000', '0:00:24.180000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:01:04.300000', '0:01:07.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=20.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.840000', '0:01:08.120000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=2.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=55.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+          <t>('0:00:18.160000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.900000', '0:00:11.630000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:56.880000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000'), ('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:08.980000', '0:00:22.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
